--- a/biology/Zoologie/Callicore_tolima/Callicore_tolima.xlsx
+++ b/biology/Zoologie/Callicore_tolima/Callicore_tolima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore tolima est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,13 +523,85 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore tolima a été décrit par William Chapman Hewitson en 1851 sous le nom initial de Catagramma tolima[1].
-Noms vernaculaires
- Callicore tolima se nomme Blue-and-orange Eighty-eight en anglais[2].
-Sous-espèces
- Callicore tolima tolima, présent en Équateur et au Pérou.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore tolima a été décrit par William Chapman Hewitson en 1851 sous le nom initial de Catagramma tolima.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore tolima se nomme Blue-and-orange Eighty-eight en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore tolima tolima, présent en Équateur et au Pérou.
  Callicore tolima bugaba (Staudinger, 1876); présent au Costa Rica et à Panama
  Callicore tolima chimana (Oberthür, 1916); présent en Équateur
  Callicore tolima denina (Hewitson, 1858); présent en Colombie et au Pérou.
@@ -525,69 +609,7 @@
  Callicore tolima pacifica (Bates, 1866); présent au Guatemala.
  Callicore tolima peralta (Dillon, 1948); présent au Costa Rica et à Panama
  Callicore tolima platytaenia (Röber, 1921); présent en Colombie
- Callicore tolima tehuana (Maza &amp; Maza, 1983); présent au Mexique[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callicore_tolima</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_tolima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore tolima est un papillon d'une envergure de 37 mm à 41 mm, au dessus de couleur noire avec aux ailes antérieures une très large bande jaune du milieu du bord costal à l'angle externe et aux ailes postérieures une flaque triangulaire bleue depuis la moitié côté angle anal du bord externe[3].
-Le revers des ailes antérieures présente la même très large bande jaune d'or que le dessus avec en plus une rayure beige à l'apex alors que les ailes postérieures sont ornementées de rayures beige, d'une bande submarginale bleue et de deux gris ocelles pupillés de bleu formant un 8.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callicore_tolima</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_tolima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+ Callicore tolima tehuana (Maza &amp; Maza, 1983); présent au Mexique.</t>
         </is>
       </c>
     </row>
@@ -612,17 +634,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore tolima est un papillon d'une envergure de 37 mm à 41 mm, au dessus de couleur noire avec aux ailes antérieures une très large bande jaune du milieu du bord costal à l'angle externe et aux ailes postérieures une flaque triangulaire bleue depuis la moitié côté angle anal du bord externe.
+Le revers des ailes antérieures présente la même très large bande jaune d'or que le dessus avec en plus une rayure beige à l'apex alors que les ailes postérieures sont ornementées de rayures beige, d'une bande submarginale bleue et de deux gris ocelles pupillés de bleu formant un 8.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Callicore atacama est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie, en Équateur et au Pérou[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore atacama est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie, en Équateur et au Pérou.
 Sur les autres projets Wikimedia :
 Callicore tolima, sur Wikimedia CommonsCallicore tolima, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_tolima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
